--- a/TestFiles/Bergan/Convergence.xlsx
+++ b/TestFiles/Bergan/Convergence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danic\Documents\3 - STG-CRSNG_E2022\HydroElasticNastran\TestFiles\BerganHydrofoil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danic\Documents\3 - STG-CRSNG_E2022\flowaddeddamping\TestFiles\Bergan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E744DE1-A79C-4C06-986C-55CFC9313335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274489ED-911E-43B6-AC8B-C84BCE864CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E3A5AF-F4A7-48E3-B1F3-90F36B10FD1B}"/>
+    <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E3A5AF-F4A7-48E3-B1F3-90F36B10FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>-</t>
   </si>
@@ -43,73 +43,70 @@
     <t>Analyse modale</t>
   </si>
   <si>
+    <t>mesh_size</t>
+  </si>
+  <si>
+    <t>nspan</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>frequency error</t>
+  </si>
+  <si>
+    <t>nelm profile</t>
+  </si>
+  <si>
+    <t>Vérification</t>
+  </si>
+  <si>
+    <t>Vérification avec l'analyse acoustique couplée</t>
+  </si>
+  <si>
+    <t>Analyse modale acoustique découplée</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>On garde un mesh size de 10</t>
+  </si>
+  <si>
+    <t>On garde un nspan de 31</t>
+  </si>
+  <si>
+    <t>0.92% d'erreur: on est bon</t>
+  </si>
+  <si>
+    <t>On garde un mesh size de 15</t>
+  </si>
+  <si>
+    <t>envelope_chord</t>
+  </si>
+  <si>
+    <t>On garde un nspan de 31 (pour la structure)</t>
+  </si>
+  <si>
     <t>nelm</t>
   </si>
   <si>
-    <t>mesh_size</t>
-  </si>
-  <si>
-    <t>nspan</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>frequency error</t>
-  </si>
-  <si>
-    <t>nelm profile</t>
-  </si>
-  <si>
-    <t>On garde un mesh size de 5</t>
-  </si>
-  <si>
-    <t>Vérification</t>
-  </si>
-  <si>
-    <t>0.23% d'erreur: on est bon</t>
-  </si>
-  <si>
-    <t>On garde un mesh size de 7</t>
-  </si>
-  <si>
-    <t>On garde un nspan de 41 (pour la structure)</t>
-  </si>
-  <si>
-    <t>Vérification avec l'analyse acoustique couplée</t>
-  </si>
-  <si>
-    <t>Analyse modale acoustique découplée</t>
-  </si>
-  <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>0.5% d'erreur: on est bon</t>
-  </si>
-  <si>
-    <t>Analyse aéroélastique</t>
-  </si>
-  <si>
-    <t>nchord</t>
-  </si>
-  <si>
-    <t>damping error</t>
-  </si>
-  <si>
-    <t>On garde un nspan de 41 (par safety)</t>
-  </si>
-  <si>
-    <t>Allure des graphs</t>
-  </si>
-  <si>
-    <t>max damping mode 1</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>On garde un nchord=nspan de 16</t>
+    <t>mesh_size_solid</t>
+  </si>
+  <si>
+    <t>mesh_size_fluid</t>
+  </si>
+  <si>
+    <t>nelm_solid</t>
+  </si>
+  <si>
+    <t>nelm_fluid</t>
+  </si>
+  <si>
+    <t>Attention au switch de modes weird</t>
+  </si>
+  <si>
+    <t>1.6% Ok% d'erreur: on est bon</t>
   </si>
 </sst>
 </file>
@@ -472,461 +469,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B6E22F-3854-4E24-828D-13A7F622F7D6}">
-  <dimension ref="B1:F58"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>1049.99</v>
+        <v>1551.03</v>
       </c>
       <c r="F3" s="1">
         <f>(E3-E4)/E4*100</f>
-        <v>6.0990136751331789E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1.8700749319677291E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>877</v>
+        <v>398</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>1049.3499999999999</v>
+        <v>1550.74</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1565.11</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(D9-D10)/D10*100</f>
+        <v>0.73307931931106463</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>1553.72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>975</v>
+      </c>
+      <c r="E16">
+        <v>1565.11</v>
+      </c>
+      <c r="F16" s="1">
+        <f>(E16-E17)/E17*100</f>
+        <v>0.78562183255950557</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>6630</v>
+      </c>
+      <c r="E17">
+        <v>1552.91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>1950</v>
-      </c>
-      <c r="E9">
-        <v>1061.19</v>
-      </c>
-      <c r="F9" s="1">
-        <f>(E9-E10)/E10*100</f>
-        <v>0.89467379109700529</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>3900</v>
-      </c>
-      <c r="E10">
-        <v>1051.78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>1051.78</v>
-      </c>
-      <c r="E16" s="1">
-        <f>(D16-D17)/D17*100</f>
-        <v>0.23157192547768277</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2.5</v>
-      </c>
-      <c r="C17">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>1049.3499999999999</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>2607</v>
+        <v>1532</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>2117.1799999999998</v>
+        <v>975.77200000000005</v>
       </c>
       <c r="F23" s="1">
         <f>(E23-E24)/E24*100</f>
-        <v>0.185969478291723</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1.2298106091720605E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="C24">
-        <v>5889</v>
+        <v>2938</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>2113.25</v>
+        <v>975.76</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>975.77200000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <f>(D29-D30)/D30*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>975.77200000000005</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>975</v>
+      </c>
+      <c r="G36" s="3">
+        <v>19485</v>
+      </c>
+      <c r="H36" s="3">
+        <v>534.75900000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <f>(H36-H37)/H37*100</f>
+        <v>1.6350664061609228</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2493.6999999999998</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>10.5</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>27612</v>
-      </c>
-      <c r="E29">
-        <v>2117.1799999999998</v>
-      </c>
-      <c r="F29" s="1">
-        <f>(E29-E30)/E30*100</f>
+      <c r="F37">
+        <v>6630</v>
+      </c>
+      <c r="G37">
+        <v>151350</v>
+      </c>
+      <c r="H37">
+        <v>526.15599999999995</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>51</v>
-      </c>
-      <c r="D30">
-        <f>27612*2</f>
-        <v>55224</v>
-      </c>
-      <c r="E30">
-        <v>2117.1799999999998</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2">
-        <v>41</v>
-      </c>
-      <c r="D36">
-        <v>286.35000000000002</v>
-      </c>
-      <c r="E36" s="1">
-        <f>(D36-D37)/D37*100</f>
-        <v>0.49836802021549709</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2493.6999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>4.5</v>
-      </c>
-      <c r="C37">
-        <v>51</v>
-      </c>
-      <c r="D37">
-        <v>284.93</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="J37" s="1">
         <v>24009</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>0.66</v>
-      </c>
-      <c r="E43" s="1">
-        <f>(D43-D44)/D44*100</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>0.66</v>
-      </c>
-      <c r="E44" s="1" t="e">
-        <f>(D44-D45)/D45*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
